--- a/Database.xlsx
+++ b/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="98">
   <si>
     <t>data type</t>
   </si>
@@ -120,48 +120,6 @@
   </si>
   <si>
     <t>1: fall ; 2: spring ; 3: summer</t>
-  </si>
-  <si>
-    <t>isSignedByAcademicAdvisorCPTform</t>
-  </si>
-  <si>
-    <t>dateSignedByAcademicAdvisorCPTform</t>
-  </si>
-  <si>
-    <t>isSignedByStudentCptForm</t>
-  </si>
-  <si>
-    <t>dateStudentSignedCptForm</t>
-  </si>
-  <si>
-    <t>isSignedByEmployerEmployerAgreement</t>
-  </si>
-  <si>
-    <t>dateEmployerSignedEmployerAgreement</t>
-  </si>
-  <si>
-    <t>isSignedByStudentEmployerAgreement</t>
-  </si>
-  <si>
-    <t>dateStudentSignedEmployerAgreement</t>
-  </si>
-  <si>
-    <t>isSignedByStudentLearningObjective</t>
-  </si>
-  <si>
-    <t>dateStudentSignedLearnObjForm</t>
-  </si>
-  <si>
-    <t>isSignedBySupervisorLearningObjective</t>
-  </si>
-  <si>
-    <t>dateSupervisorSignedLearnObjForm</t>
-  </si>
-  <si>
-    <t>isSignedByInstructortLearningObjective</t>
-  </si>
-  <si>
-    <t>dateInstructorSignedLearnObjForm</t>
   </si>
   <si>
     <t>isSignedBySupervisorUponCompletion</t>
@@ -354,6 +312,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>isSignedByAcademicAdvisor</t>
+  </si>
+  <si>
+    <t>dateSignedByAcademicAdvisor</t>
   </si>
 </sst>
 </file>
@@ -727,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1482,7 +1446,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>6</v>
@@ -1517,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
@@ -1551,9 +1515,7 @@
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1583,15 +1545,9 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1618,15 +1574,9 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1653,15 +1603,9 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1688,15 +1632,9 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1723,15 +1661,9 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1757,16 +1689,10 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="30" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1793,15 +1719,9 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1828,15 +1748,9 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1863,15 +1777,9 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1897,16 +1805,10 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
+    <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1933,15 +1835,9 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1972,7 +1868,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
@@ -2007,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
@@ -28603,10 +28499,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -28638,10 +28534,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -28673,10 +28569,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -28708,10 +28604,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -28743,10 +28639,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -28778,10 +28674,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -28813,10 +28709,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -28848,10 +28744,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -28883,10 +28779,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -28918,10 +28814,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -28953,10 +28849,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -28988,10 +28884,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -29072,13 +28968,13 @@
     </row>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -29107,13 +29003,13 @@
     </row>
     <row r="3" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -29142,13 +29038,13 @@
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29177,13 +29073,13 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29212,13 +29108,13 @@
     </row>
     <row r="6" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29247,13 +29143,13 @@
     </row>
     <row r="7" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29337,10 +29233,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -29372,10 +29268,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -29407,10 +29303,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29442,10 +29338,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29477,10 +29373,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29512,10 +29408,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29596,13 +29492,13 @@
     </row>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -29634,10 +29530,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -29669,10 +29565,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29704,10 +29600,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29739,10 +29635,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29774,10 +29670,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29809,13 +29705,13 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -29843,13 +29739,13 @@
     </row>
     <row r="9" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -29886,7 +29782,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29936,13 +29832,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -29973,13 +29869,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -30010,10 +29906,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -30045,10 +29941,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30080,10 +29976,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -30115,10 +30011,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30150,10 +30046,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30185,13 +30081,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -30222,13 +30118,13 @@
         <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -30259,10 +30155,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -30294,10 +30190,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -30329,10 +30225,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -30364,10 +30260,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -30399,10 +30295,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -30434,10 +30330,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -30469,10 +30365,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -30504,10 +30400,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1545,9 +1545,15 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1574,9 +1580,15 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1862,76 +1874,6 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
     </row>
     <row r="87" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
